--- a/documentation/rules/Intercent-ER-Regole-ITNAT-UBL-T10-Fattura-OpenPEPPOL-1.4.3_SDI_1.2.xlsx
+++ b/documentation/rules/Intercent-ER-Regole-ITNAT-UBL-T10-Fattura-OpenPEPPOL-1.4.3_SDI_1.2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="361">
   <si>
     <t>SDI-T10-R011</t>
   </si>
@@ -1102,7 +1102,13 @@
     <t>//cac:PartyTaxScheme/cbc:CompanyID[@schemeID='IT:CF' and ../../cac:PartyIdentification/cbc:ID!='CODDEST:0000000' and not(../../cac:Person[cbc:ID/@schemeID='IT:CF'])]</t>
   </si>
   <si>
-    <t>//cac:PartyTaxScheme/cbc:CompanyID[@schemeID='IT:CF' and ../../cac:PartyIdentification/cbc:ID='CODDEST:0000000' and ../../cac:Person[cbc:ID/@schemeID='IT:CF']]</t>
+    <t>Il codice fiscale di una persona fisica DEVE essere fornito sia nel PartyTaxScheme/CompanyID che nell'entità Person e deve essere composto da 16 caratteri alfanumerici.</t>
+  </si>
+  <si>
+    <t>//cac:PartyTaxScheme/cbc:CompanyID[@schemeID='IT:CF' and ../../cac:PartyIdentification/cbc:ID='CODDEST:0000000']</t>
+  </si>
+  <si>
+    <t>(string-length(translate(.,$vBasicLatin,'')) = 0 and string-length() = 16) or not(../../cac:Person[cbc:ID/@schemeID='IT:CF'])</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1995,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,13 +2773,13 @@
         <v>354</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>42</v>
